--- a/result/result_finetune_input.xlsx
+++ b/result/result_finetune_input.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anti-DreamBooth-Linux\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SD_benchmark\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED70B16-4988-46BC-8260-EF29DF89600E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FEBE1C-FB2E-46A6-9439-9B4B6BC17A80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_celeb20_finetune_input_a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -4820,16 +4819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5156,7 +5155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
